--- a/inst/models/competition.xlsx
+++ b/inst/models/competition.xlsx
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="103" uniqueCount="70">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="118" uniqueCount="78">
   <si>
     <t xml:space="preserve">name</t>
   </si>
@@ -217,22 +217,46 @@
     <t xml:space="preserve">Cycle duration of N:P variation</t>
   </si>
   <si>
+    <t xml:space="preserve">code</t>
+  </si>
+  <si>
     <t xml:space="preserve">min</t>
   </si>
   <si>
-    <t xml:space="preserve">-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Minimum of arguments</t>
+    <t xml:space="preserve"># intrinsic function</t>
   </si>
   <si>
     <t xml:space="preserve">N2Pin</t>
   </si>
   <si>
-    <t xml:space="preserve">g N / g P</t>
-  </si>
-  <si>
-    <t xml:space="preserve">N:P mass ratio in inflow</t>
+    <t xml:space="preserve"># N:P mass ratio in the inflow in units of g N / g P</t>
+  </si>
+  <si>
+    <t xml:space="preserve"># The function can return constant values or a cyclic dynamics</t>
+  </si>
+  <si>
+    <t xml:space="preserve"># depending on the choice of arguments.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">#     time: will be set by the integration routine internally</t>
+  </si>
+  <si>
+    <t xml:space="preserve">#     mini: the lowest possible value</t>
+  </si>
+  <si>
+    <t xml:space="preserve">#     maxi: the largest possible value</t>
+  </si>
+  <si>
+    <t xml:space="preserve">#     interval: duration of a full cycle (e.g. from maxi to maxi)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">N2Pin &lt;- function(time, mini, maxi, interval) {</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  mini + 0.5*(sin(time/interval * 2 * 3.1415) + 1) * (maxi - mini)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">}</t>
   </si>
 </sst>
 </file>
@@ -244,7 +268,7 @@
     <numFmt numFmtId="165" formatCode="@"/>
     <numFmt numFmtId="166" formatCode="0.00E+00"/>
   </numFmts>
-  <fonts count="4">
+  <fonts count="7">
     <font>
       <sz val="10"/>
       <name val="Arial"/>
@@ -266,13 +290,41 @@
       <name val="Arial"/>
       <family val="0"/>
     </font>
+    <font>
+      <b val="true"/>
+      <sz val="10"/>
+      <name val="Arial"/>
+      <family val="2"/>
+      <charset val="1"/>
+    </font>
+    <font>
+      <b val="true"/>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
+      <name val="Arial"/>
+      <family val="2"/>
+      <charset val="1"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
+      <name val="Arial"/>
+      <family val="2"/>
+      <charset val="1"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFEEEEEE"/>
+        <bgColor rgb="FFFFFFCC"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -309,7 +361,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="9">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -318,7 +370,19 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
+    <xf numFmtId="164" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="165" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
     <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="5" fillId="2" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -327,6 +391,10 @@
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -339,6 +407,66 @@
     <cellStyle name="Currency [0]" xfId="18" builtinId="7"/>
     <cellStyle name="Percent" xfId="19" builtinId="5"/>
   </cellStyles>
+  <colors>
+    <indexedColors>
+      <rgbColor rgb="FF000000"/>
+      <rgbColor rgb="FFEEEEEE"/>
+      <rgbColor rgb="FFFF0000"/>
+      <rgbColor rgb="FF00FF00"/>
+      <rgbColor rgb="FF0000FF"/>
+      <rgbColor rgb="FFFFFF00"/>
+      <rgbColor rgb="FFFF00FF"/>
+      <rgbColor rgb="FF00FFFF"/>
+      <rgbColor rgb="FF800000"/>
+      <rgbColor rgb="FF008000"/>
+      <rgbColor rgb="FF000080"/>
+      <rgbColor rgb="FF808000"/>
+      <rgbColor rgb="FF800080"/>
+      <rgbColor rgb="FF008080"/>
+      <rgbColor rgb="FFC0C0C0"/>
+      <rgbColor rgb="FF808080"/>
+      <rgbColor rgb="FF9999FF"/>
+      <rgbColor rgb="FF993366"/>
+      <rgbColor rgb="FFFFFFCC"/>
+      <rgbColor rgb="FFCCFFFF"/>
+      <rgbColor rgb="FF660066"/>
+      <rgbColor rgb="FFFF8080"/>
+      <rgbColor rgb="FF0066CC"/>
+      <rgbColor rgb="FFCCCCFF"/>
+      <rgbColor rgb="FF000080"/>
+      <rgbColor rgb="FFFF00FF"/>
+      <rgbColor rgb="FFFFFF00"/>
+      <rgbColor rgb="FF00FFFF"/>
+      <rgbColor rgb="FF800080"/>
+      <rgbColor rgb="FF800000"/>
+      <rgbColor rgb="FF008080"/>
+      <rgbColor rgb="FF0000FF"/>
+      <rgbColor rgb="FF00CCFF"/>
+      <rgbColor rgb="FFCCFFFF"/>
+      <rgbColor rgb="FFCCFFCC"/>
+      <rgbColor rgb="FFFFFF99"/>
+      <rgbColor rgb="FF99CCFF"/>
+      <rgbColor rgb="FFFF99CC"/>
+      <rgbColor rgb="FFCC99FF"/>
+      <rgbColor rgb="FFFFCC99"/>
+      <rgbColor rgb="FF3366FF"/>
+      <rgbColor rgb="FF33CCCC"/>
+      <rgbColor rgb="FF99CC00"/>
+      <rgbColor rgb="FFFFCC00"/>
+      <rgbColor rgb="FFFF9900"/>
+      <rgbColor rgb="FFFF6600"/>
+      <rgbColor rgb="FF666699"/>
+      <rgbColor rgb="FF969696"/>
+      <rgbColor rgb="FF003366"/>
+      <rgbColor rgb="FF339966"/>
+      <rgbColor rgb="FF003300"/>
+      <rgbColor rgb="FF333300"/>
+      <rgbColor rgb="FF993300"/>
+      <rgbColor rgb="FF993366"/>
+      <rgbColor rgb="FF333399"/>
+      <rgbColor rgb="FF333333"/>
+    </indexedColors>
+  </colors>
 </styleSheet>
 </file>
 
@@ -349,44 +477,44 @@
   </sheetPr>
   <dimension ref="A1:H8"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="140" zoomScaleNormal="140" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="D23" activeCellId="0" sqref="D23"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="130" zoomScaleNormal="130" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="D11" activeCellId="0" sqref="D11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.66796875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.70703125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="8.63"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="10.02"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="61.23"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="0" width="6.05"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="1" width="9.22"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="1" width="9.2"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="1" width="4.56"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="8" style="1" width="4.36"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="0" t="s">
+      <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="0" t="s">
+      <c r="B1" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="0" t="s">
+      <c r="C1" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="0" t="s">
+      <c r="D1" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="0" t="s">
+      <c r="E1" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="2" t="s">
+      <c r="F1" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="2" t="s">
+      <c r="G1" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="2" t="s">
+      <c r="H1" s="3" t="s">
         <v>7</v>
       </c>
     </row>
@@ -394,13 +522,13 @@
       <c r="A2" s="0" t="s">
         <v>8</v>
       </c>
-      <c r="D2" s="2" t="s">
+      <c r="D2" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="E2" s="2" t="s">
+      <c r="E2" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="F2" s="2" t="s">
+      <c r="F2" s="4" t="s">
         <v>11</v>
       </c>
       <c r="G2" s="1" t="s">
@@ -411,13 +539,13 @@
       <c r="A3" s="0" t="s">
         <v>13</v>
       </c>
-      <c r="D3" s="2" t="s">
+      <c r="D3" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="E3" s="2" t="s">
+      <c r="E3" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="F3" s="2" t="s">
+      <c r="F3" s="4" t="s">
         <v>11</v>
       </c>
       <c r="H3" s="1" t="s">
@@ -434,7 +562,7 @@
       <c r="E4" s="1" t="n">
         <v>1</v>
       </c>
-      <c r="F4" s="2"/>
+      <c r="F4" s="4"/>
     </row>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="0" t="s">
@@ -443,7 +571,7 @@
       <c r="D5" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="E5" s="2"/>
+      <c r="E5" s="4"/>
       <c r="F5" s="1" t="s">
         <v>12</v>
       </c>
@@ -459,23 +587,23 @@
       <c r="G6" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="H6" s="2"/>
+      <c r="H6" s="4"/>
     </row>
     <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="0" t="s">
         <v>21</v>
       </c>
-      <c r="D7" s="2" t="s">
+      <c r="D7" s="4" t="s">
         <v>22</v>
       </c>
       <c r="E7" s="1"/>
-      <c r="G7" s="2"/>
+      <c r="G7" s="4"/>
       <c r="H7" s="1" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="H8" s="2"/>
+      <c r="H8" s="4"/>
     </row>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
@@ -495,11 +623,11 @@
   </sheetPr>
   <dimension ref="A1:D5"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="140" zoomScaleNormal="140" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="D11" activeCellId="0" sqref="D11"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="130" zoomScaleNormal="130" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.66796875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.70703125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="5.85"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="8.56"/>
@@ -508,16 +636,16 @@
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="0" t="s">
+      <c r="A1" s="5" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="0" t="s">
+      <c r="B1" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="0" t="s">
+      <c r="C1" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="0" t="s">
+      <c r="D1" s="5" t="s">
         <v>23</v>
       </c>
     </row>
@@ -545,7 +673,7 @@
       <c r="C3" s="0" t="s">
         <v>26</v>
       </c>
-      <c r="D3" s="3" t="n">
+      <c r="D3" s="6" t="n">
         <v>1</v>
       </c>
     </row>
@@ -559,7 +687,7 @@
       <c r="C4" s="0" t="s">
         <v>28</v>
       </c>
-      <c r="D4" s="3" t="n">
+      <c r="D4" s="6" t="n">
         <v>0.06</v>
       </c>
     </row>
@@ -595,11 +723,11 @@
   </sheetPr>
   <dimension ref="A1:D16"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="140" zoomScaleNormal="140" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="D18" activeCellId="0" sqref="D18"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="130" zoomScaleNormal="130" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="C16" activeCellId="0" sqref="C16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.66796875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.70703125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="14.49"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="8.73"/>
@@ -607,16 +735,16 @@
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="0" t="s">
+      <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="0" t="s">
+      <c r="B1" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="0" t="s">
+      <c r="C1" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="0" t="s">
+      <c r="D1" s="2" t="s">
         <v>23</v>
       </c>
     </row>
@@ -630,7 +758,7 @@
       <c r="C2" s="0" t="s">
         <v>33</v>
       </c>
-      <c r="D2" s="3" t="n">
+      <c r="D2" s="6" t="n">
         <v>3</v>
       </c>
     </row>
@@ -673,7 +801,7 @@
       <c r="C5" s="0" t="s">
         <v>40</v>
       </c>
-      <c r="D5" s="3" t="n">
+      <c r="D5" s="6" t="n">
         <f aca="false">(106*12) / (1*31)</f>
         <v>41.0322580645161</v>
       </c>
@@ -688,7 +816,7 @@
       <c r="C6" s="0" t="s">
         <v>43</v>
       </c>
-      <c r="D6" s="3" t="n">
+      <c r="D6" s="6" t="n">
         <v>0.01</v>
       </c>
     </row>
@@ -702,7 +830,7 @@
       <c r="C7" s="0" t="s">
         <v>45</v>
       </c>
-      <c r="D7" s="3" t="n">
+      <c r="D7" s="6" t="n">
         <v>0.01</v>
       </c>
     </row>
@@ -716,7 +844,7 @@
       <c r="C8" s="0" t="s">
         <v>47</v>
       </c>
-      <c r="D8" s="3" t="n">
+      <c r="D8" s="6" t="n">
         <v>0.1</v>
       </c>
     </row>
@@ -730,7 +858,7 @@
       <c r="C9" s="0" t="s">
         <v>49</v>
       </c>
-      <c r="D9" s="3" t="n">
+      <c r="D9" s="6" t="n">
         <v>0.1</v>
       </c>
     </row>
@@ -850,36 +978,32 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:D4"/>
+  <dimension ref="A1:D12"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="140" zoomScaleNormal="140" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C4" activeCellId="0" sqref="C4"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="130" zoomScaleNormal="130" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="B2" activeCellId="0" sqref="B2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.66796875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.70703125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="54.68"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="22.06"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="4" t="s">
+      <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="4" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="4" t="s">
-        <v>2</v>
-      </c>
+      <c r="B1" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="C1" s="7"/>
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="0" t="s">
-        <v>64</v>
-      </c>
-      <c r="B2" s="0" t="s">
         <v>65</v>
       </c>
-      <c r="C2" s="0" t="s">
+      <c r="B2" s="8" t="s">
         <v>66</v>
       </c>
     </row>
@@ -887,15 +1011,82 @@
       <c r="A3" s="0" t="s">
         <v>67</v>
       </c>
-      <c r="B3" s="0" t="s">
+      <c r="B3" s="8" t="s">
         <v>68</v>
       </c>
-      <c r="C3" s="0" t="s">
+    </row>
+    <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A4" s="0" t="s">
+        <v>67</v>
+      </c>
+      <c r="B4" s="8" t="s">
         <v>69</v>
       </c>
-    </row>
-    <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="D4" s="3"/>
+      <c r="D4" s="6"/>
+    </row>
+    <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A5" s="0" t="s">
+        <v>67</v>
+      </c>
+      <c r="B5" s="8" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A6" s="0" t="s">
+        <v>67</v>
+      </c>
+      <c r="B6" s="8" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A7" s="0" t="s">
+        <v>67</v>
+      </c>
+      <c r="B7" s="8" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A8" s="0" t="s">
+        <v>67</v>
+      </c>
+      <c r="B8" s="8" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A9" s="0" t="s">
+        <v>67</v>
+      </c>
+      <c r="B9" s="8" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A10" s="0" t="s">
+        <v>67</v>
+      </c>
+      <c r="B10" s="0" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A11" s="0" t="s">
+        <v>67</v>
+      </c>
+      <c r="B11" s="0" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A12" s="0" t="s">
+        <v>67</v>
+      </c>
+      <c r="B12" s="0" t="s">
+        <v>77</v>
+      </c>
     </row>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
